--- a/CiscoMPP/TAP_CiscoMPP_VideoCall_TestPlan/TAP_CiscoMPP_VideoCall_TestPlan.xlsx
+++ b/CiscoMPP/TAP_CiscoMPP_VideoCall_TestPlan/TAP_CiscoMPP_VideoCall_TestPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandem\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyathakula\Documents\GitHub\tekVizion-360AP-Golden-Test-Suite\CiscoMPP\TAP_CiscoMPP_VideoCall_TestPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F398454-745B-4B02-9462-97C0D84CEAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CAD8A4-C10C-4F62-B432-9F254B413648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-912" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -912,28 +912,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="3"/>
-    <col min="2" max="2" width="35.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.90625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="28.36328125" style="1"/>
+    <col min="1" max="1" width="28.33203125" style="3"/>
+    <col min="2" max="2" width="35.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="28.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -950,7 +950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -967,7 +967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="121.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>31</v>
@@ -982,7 +982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>32</v>
@@ -997,7 +997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="121.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>33</v>
@@ -1012,7 +1012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="121.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
         <v>35</v>
@@ -1042,7 +1042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="121.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="129.6" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>36</v>
@@ -1057,7 +1057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" ht="148.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="172.8" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>37</v>
@@ -1072,7 +1072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" ht="297" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="9" customFormat="1" ht="316.8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" ht="297" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="9" customFormat="1" ht="316.8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="256.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -1134,6 +1134,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A23F3416E254A4498FCA829FC7E44DA" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7b4a7a85c5ecfc3cfd599c9a7cf89c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9ee364c-220e-4615-987a-3b7223de6e9f" xmlns:ns3="4467630a-12db-40c6-8a45-99f0b9a1f438" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b16571502553e174c2cbaffb366a8446" ns2:_="" ns3:_="">
     <xsd:import namespace="f9ee364c-220e-4615-987a-3b7223de6e9f"/>
@@ -1342,15 +1351,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1363,6 +1363,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4251E72C-A8C7-44FE-836E-458F7EE9FD38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DDF2A57-039D-479D-859F-1C80F3CADE68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1381,14 +1389,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4251E72C-A8C7-44FE-836E-458F7EE9FD38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE5DBFF-1734-46DC-9440-BBA9D323060F}">
   <ds:schemaRefs>
